--- a/literature_analysis_security_privacy_CUI.xlsx
+++ b/literature_analysis_security_privacy_CUI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rim\Documents\GitHub\CUI_Data_Security_Privacy_Scoping_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="227">
   <si>
     <t>Medical Speciality</t>
   </si>
@@ -548,15 +548,6 @@
     <t>not encrypted</t>
   </si>
   <si>
-    <t>infomation / eLearining</t>
-  </si>
-  <si>
-    <t>encoding / decision support</t>
-  </si>
-  <si>
-    <t>counselling</t>
-  </si>
-  <si>
     <t>General knowledge</t>
   </si>
   <si>
@@ -683,27 +674,15 @@
     <t>The chatbot feels you - a Counseling service using emotional response generation</t>
   </si>
   <si>
-    <t>Diagnosing, treatment suggestion</t>
-  </si>
-  <si>
     <t>Diagnosing</t>
   </si>
   <si>
-    <t>Diagnosing and counselling</t>
-  </si>
-  <si>
-    <t>Diagnosing, counselling</t>
-  </si>
-  <si>
     <t>A smartphone Chatbot application to optimize Monitoring of older patients with cancer.</t>
   </si>
   <si>
     <t>Monitoring</t>
   </si>
   <si>
-    <t>Monitoring, Coaching, treating (collecting traumatic memories)</t>
-  </si>
-  <si>
     <t>Questioning, Counseling</t>
   </si>
   <si>
@@ -720,6 +699,12 @@
   </si>
   <si>
     <t>Encrypted data exchange</t>
+  </si>
+  <si>
+    <t>Monitoring, Coaching</t>
+  </si>
+  <si>
+    <t>Diagnosing, counseling</t>
   </si>
 </sst>
 </file>
@@ -1116,14 +1101,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
@@ -1138,32 +1123,32 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1190,7 +1175,7 @@
       </c>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" ht="44.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>127</v>
       </c>
@@ -1213,31 +1198,31 @@
         <v>172</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>169</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>4</v>
@@ -1263,7 +1248,7 @@
         <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>148</v>
@@ -1272,10 +1257,10 @@
         <v>148</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I11" t="s">
         <v>149</v>
@@ -1325,7 +1310,7 @@
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>148</v>
@@ -1334,7 +1319,7 @@
         <v>148</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>148</v>
@@ -1387,7 +1372,7 @@
         <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>148</v>
@@ -1396,10 +1381,10 @@
         <v>148</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>151</v>
@@ -1449,16 +1434,16 @@
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>148</v>
@@ -1511,7 +1496,7 @@
         <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>148</v>
@@ -1520,7 +1505,7 @@
         <v>148</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>148</v>
@@ -1573,19 +1558,19 @@
         <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>173</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>151</v>
@@ -1635,7 +1620,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>148</v>
@@ -1697,7 +1682,7 @@
         <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>148</v>
@@ -1706,7 +1691,7 @@
         <v>148</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>148</v>
@@ -1750,7 +1735,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>154</v>
@@ -1759,16 +1744,16 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>148</v>
@@ -1821,7 +1806,7 @@
         <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>148</v>
@@ -1830,7 +1815,7 @@
         <v>148</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>148</v>
@@ -1889,7 +1874,7 @@
         <v>148</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>148</v>
@@ -1942,19 +1927,19 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>151</v>
@@ -2004,7 +1989,7 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>148</v>
@@ -2066,7 +2051,7 @@
         <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>148</v>
@@ -2128,7 +2113,7 @@
         <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>148</v>
@@ -2190,7 +2175,7 @@
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>148</v>
@@ -2252,7 +2237,7 @@
         <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>148</v>
@@ -2314,7 +2299,7 @@
         <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>148</v>
@@ -2326,7 +2311,7 @@
         <v>148</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>151</v>
@@ -2376,7 +2361,7 @@
         <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>148</v>
@@ -2388,7 +2373,7 @@
         <v>148</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>151</v>
@@ -2438,10 +2423,10 @@
         <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>148</v>
@@ -2450,7 +2435,7 @@
         <v>148</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>151</v>
@@ -2500,7 +2485,7 @@
         <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>148</v>
@@ -2562,7 +2547,7 @@
         <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>148</v>
@@ -2571,10 +2556,10 @@
         <v>148</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>151</v>
@@ -2624,10 +2609,10 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>148</v>
@@ -2636,7 +2621,7 @@
         <v>148</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>151</v>
@@ -2686,7 +2671,7 @@
         <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>148</v>
@@ -2748,7 +2733,7 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>148</v>
@@ -2810,10 +2795,10 @@
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>148</v>
@@ -2872,7 +2857,7 @@
         <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>148</v>
@@ -2934,7 +2919,7 @@
         <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>148</v>
@@ -2996,7 +2981,7 @@
         <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>148</v>
@@ -3058,10 +3043,10 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>148</v>
@@ -3119,6 +3104,9 @@
       <c r="C41" t="s">
         <v>137</v>
       </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
       <c r="E41" s="5" t="s">
         <v>148</v>
       </c>
@@ -3126,10 +3114,10 @@
         <v>148</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>151</v>
@@ -3179,7 +3167,7 @@
         <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>148</v>
@@ -3191,7 +3179,7 @@
         <v>148</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>151</v>
@@ -3241,7 +3229,7 @@
         <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>148</v>
@@ -3253,7 +3241,7 @@
         <v>148</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>151</v>
@@ -3303,7 +3291,7 @@
         <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>148</v>
@@ -3365,10 +3353,10 @@
         <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>148</v>
@@ -3377,7 +3365,7 @@
         <v>148</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>151</v>
@@ -3427,19 +3415,19 @@
         <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>151</v>
@@ -3489,19 +3477,19 @@
         <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>151</v>
@@ -3551,19 +3539,19 @@
         <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>151</v>
@@ -3613,7 +3601,7 @@
         <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>148</v>
@@ -3622,7 +3610,7 @@
         <v>148</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>148</v>
@@ -3675,19 +3663,19 @@
         <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>151</v>
@@ -3737,7 +3725,7 @@
         <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>148</v>
@@ -3799,10 +3787,10 @@
         <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>148</v>
@@ -3811,7 +3799,7 @@
         <v>148</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>151</v>
@@ -3861,19 +3849,19 @@
         <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>151</v>
@@ -3923,19 +3911,19 @@
         <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>151</v>
@@ -3985,19 +3973,19 @@
         <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>151</v>
@@ -4047,10 +4035,10 @@
         <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>148</v>
@@ -4059,7 +4047,7 @@
         <v>148</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>151</v>
@@ -4109,10 +4097,10 @@
         <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>148</v>
@@ -4121,7 +4109,7 @@
         <v>148</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>151</v>
@@ -4171,19 +4159,19 @@
         <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>151</v>
@@ -4233,10 +4221,10 @@
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>148</v>
@@ -4245,7 +4233,7 @@
         <v>148</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>151</v>
@@ -4286,7 +4274,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>108</v>
@@ -4295,7 +4283,7 @@
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>148</v>
@@ -4357,7 +4345,7 @@
         <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>148</v>
@@ -4419,7 +4407,7 @@
         <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>148</v>
@@ -4481,7 +4469,7 @@
         <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>148</v>
@@ -4493,7 +4481,7 @@
         <v>148</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>151</v>
@@ -4543,7 +4531,7 @@
         <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>148</v>
@@ -4605,7 +4593,7 @@
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>148</v>
@@ -4667,19 +4655,19 @@
         <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>151</v>
@@ -4729,19 +4717,19 @@
         <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>151</v>
@@ -4791,19 +4779,19 @@
         <v>131</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G68" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>151</v>
@@ -4844,7 +4832,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>117</v>
@@ -4853,10 +4841,10 @@
         <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>148</v>
@@ -4915,19 +4903,19 @@
         <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>151</v>
@@ -4977,19 +4965,19 @@
         <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>151</v>
@@ -5039,10 +5027,10 @@
         <v>130</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>148</v>
@@ -5051,7 +5039,7 @@
         <v>148</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>151</v>
@@ -5101,19 +5089,19 @@
         <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>151</v>
@@ -5163,7 +5151,7 @@
         <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>148</v>
@@ -5175,7 +5163,7 @@
         <v>148</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>151</v>
@@ -5225,19 +5213,19 @@
         <v>131</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>151</v>
@@ -5267,7 +5255,7 @@
         <v>168</v>
       </c>
       <c r="R75" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S75" t="s">
         <v>149</v>
@@ -5287,19 +5275,19 @@
         <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>151</v>
@@ -5349,19 +5337,19 @@
         <v>138</v>
       </c>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>151</v>
@@ -5391,7 +5379,7 @@
         <v>165</v>
       </c>
       <c r="R77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S77" t="s">
         <v>149</v>
@@ -5411,19 +5399,19 @@
         <v>131</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>151</v>
@@ -5473,19 +5461,19 @@
         <v>131</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>151</v>
@@ -5535,19 +5523,19 @@
         <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>151</v>
